--- a/2019ncov.xlsx
+++ b/2019ncov.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorjiang/Code Repo/2019ncovDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B02143B0-BC8F-6347-9F25-3DBB08B90747}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97720D4-8AAD-0A4F-B73D-C69260A09DC2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{0BE1216A-E725-3444-9DD6-08DDC3FBE000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0BE1216A-E725-3444-9DD6-08DDC3FBE000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -95,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24BE7C7-5ACB-1A46-B88E-E00701D62F5D}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -672,6 +672,23 @@
         <v>328</v>
       </c>
     </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B16">
+        <v>17205</v>
+      </c>
+      <c r="C16">
+        <v>21558</v>
+      </c>
+      <c r="D16">
+        <v>361</v>
+      </c>
+      <c r="E16">
+        <v>475</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
